--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Mfge8-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Mfge8-Itgb3.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>21.66138833333333</v>
+        <v>14.82231633333333</v>
       </c>
       <c r="H2">
-        <v>64.984165</v>
+        <v>44.466949</v>
       </c>
       <c r="I2">
-        <v>0.2252765553546639</v>
+        <v>0.0966878806285147</v>
       </c>
       <c r="J2">
-        <v>0.225276555354664</v>
+        <v>0.0966878806285147</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.970048</v>
+        <v>0.110552</v>
       </c>
       <c r="N2">
-        <v>26.910144</v>
+        <v>0.331656</v>
       </c>
       <c r="O2">
-        <v>0.487108783009476</v>
+        <v>0.01126249561724847</v>
       </c>
       <c r="P2">
-        <v>0.4871087830094759</v>
+        <v>0.01126249561724847</v>
       </c>
       <c r="Q2">
-        <v>194.30369309664</v>
+        <v>1.638636715282667</v>
       </c>
       <c r="R2">
-        <v>1748.73323786976</v>
+        <v>14.747730437544</v>
       </c>
       <c r="S2">
-        <v>0.1097341887193772</v>
+        <v>0.00108894683181969</v>
       </c>
       <c r="T2">
-        <v>0.1097341887193772</v>
+        <v>0.001088946831819691</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>21.66138833333333</v>
+        <v>14.82231633333333</v>
       </c>
       <c r="H3">
-        <v>64.984165</v>
+        <v>44.466949</v>
       </c>
       <c r="I3">
-        <v>0.2252765553546639</v>
+        <v>0.0966878806285147</v>
       </c>
       <c r="J3">
-        <v>0.225276555354664</v>
+        <v>0.0966878806285147</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>27.036212</v>
       </c>
       <c r="O3">
-        <v>0.489390778604016</v>
+        <v>0.9181055646724333</v>
       </c>
       <c r="P3">
-        <v>0.489390778604016</v>
+        <v>0.9181055646724334</v>
       </c>
       <c r="Q3">
-        <v>195.2139623981089</v>
+        <v>133.5797622396875</v>
       </c>
       <c r="R3">
-        <v>1756.92566158298</v>
+        <v>1202.217860157188</v>
       </c>
       <c r="S3">
-        <v>0.1102482688262497</v>
+        <v>0.08876968124142331</v>
       </c>
       <c r="T3">
-        <v>0.1102482688262497</v>
+        <v>0.08876968124142333</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>21.66138833333333</v>
+        <v>14.82231633333333</v>
       </c>
       <c r="H4">
-        <v>64.984165</v>
+        <v>44.466949</v>
       </c>
       <c r="I4">
-        <v>0.2252765553546639</v>
+        <v>0.0966878806285147</v>
       </c>
       <c r="J4">
-        <v>0.225276555354664</v>
+        <v>0.0966878806285147</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4327576666666667</v>
+        <v>0.6933189999999999</v>
       </c>
       <c r="N4">
-        <v>1.298273</v>
+        <v>2.079957</v>
       </c>
       <c r="O4">
-        <v>0.02350043838650813</v>
+        <v>0.07063193971031816</v>
       </c>
       <c r="P4">
-        <v>0.02350043838650813</v>
+        <v>0.07063193971031817</v>
       </c>
       <c r="Q4">
-        <v>9.374131871893889</v>
+        <v>10.27659353791033</v>
       </c>
       <c r="R4">
-        <v>84.36718684704501</v>
+        <v>92.489341841193</v>
       </c>
       <c r="S4">
-        <v>0.005294097809037066</v>
+        <v>0.006829252555271689</v>
       </c>
       <c r="T4">
-        <v>0.005294097809037068</v>
+        <v>0.006829252555271691</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>74.04265699999999</v>
       </c>
       <c r="I5">
-        <v>0.2566790650963491</v>
+        <v>0.1609965995515919</v>
       </c>
       <c r="J5">
-        <v>0.2566790650963491</v>
+        <v>0.1609965995515918</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.970048</v>
+        <v>0.110552</v>
       </c>
       <c r="N5">
-        <v>26.910144</v>
+        <v>0.331656</v>
       </c>
       <c r="O5">
-        <v>0.487108783009476</v>
+        <v>0.01126249561724847</v>
       </c>
       <c r="P5">
-        <v>0.4871087830094759</v>
+        <v>0.01126249561724847</v>
       </c>
       <c r="Q5">
-        <v>221.388729112512</v>
+        <v>2.728521272221333</v>
       </c>
       <c r="R5">
-        <v>1992.498562012608</v>
+        <v>24.556691449992</v>
       </c>
       <c r="S5">
-        <v>0.1250306270230927</v>
+        <v>0.001813223496841711</v>
       </c>
       <c r="T5">
-        <v>0.1250306270230927</v>
+        <v>0.001813223496841711</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>74.04265699999999</v>
       </c>
       <c r="I6">
-        <v>0.2566790650963491</v>
+        <v>0.1609965995515919</v>
       </c>
       <c r="J6">
-        <v>0.2566790650963491</v>
+        <v>0.1609965995515918</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>27.036212</v>
       </c>
       <c r="O6">
-        <v>0.489390778604016</v>
+        <v>0.9181055646724333</v>
       </c>
       <c r="P6">
-        <v>0.489390778604016</v>
+        <v>0.9181055646724334</v>
       </c>
       <c r="Q6">
         <v>222.4258857439204</v>
@@ -818,10 +818,10 @@
         <v>2001.832971695284</v>
       </c>
       <c r="S6">
-        <v>0.1256163675188532</v>
+        <v>0.1478118739416559</v>
       </c>
       <c r="T6">
-        <v>0.1256163675188532</v>
+        <v>0.1478118739416559</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>74.04265699999999</v>
       </c>
       <c r="I7">
-        <v>0.2566790650963491</v>
+        <v>0.1609965995515919</v>
       </c>
       <c r="J7">
-        <v>0.2566790650963491</v>
+        <v>0.1609965995515918</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.4327576666666667</v>
+        <v>0.6933189999999999</v>
       </c>
       <c r="N7">
-        <v>1.298273</v>
+        <v>2.079957</v>
       </c>
       <c r="O7">
-        <v>0.02350043838650813</v>
+        <v>0.07063193971031816</v>
       </c>
       <c r="P7">
-        <v>0.02350043838650813</v>
+        <v>0.07063193971031817</v>
       </c>
       <c r="Q7">
-        <v>10.68084249237344</v>
+        <v>17.11172696952766</v>
       </c>
       <c r="R7">
-        <v>96.12758243136099</v>
+        <v>154.005542725749</v>
       </c>
       <c r="S7">
-        <v>0.00603207055440326</v>
+        <v>0.01137150211309427</v>
       </c>
       <c r="T7">
-        <v>0.006032070554403262</v>
+        <v>0.01137150211309427</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>49.812376</v>
+        <v>113.7974623333333</v>
       </c>
       <c r="H8">
-        <v>149.437128</v>
+        <v>341.392387</v>
       </c>
       <c r="I8">
-        <v>0.518044379548987</v>
+        <v>0.7423155198198935</v>
       </c>
       <c r="J8">
-        <v>0.5180443795489871</v>
+        <v>0.7423155198198935</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.970048</v>
+        <v>0.110552</v>
       </c>
       <c r="N8">
-        <v>26.910144</v>
+        <v>0.331656</v>
       </c>
       <c r="O8">
-        <v>0.487108783009476</v>
+        <v>0.01126249561724847</v>
       </c>
       <c r="P8">
-        <v>0.4871087830094759</v>
+        <v>0.01126249561724847</v>
       </c>
       <c r="Q8">
-        <v>446.819403714048</v>
+        <v>12.58053705587467</v>
       </c>
       <c r="R8">
-        <v>4021.374633426432</v>
+        <v>113.224833502872</v>
       </c>
       <c r="S8">
-        <v>0.2523439672670061</v>
+        <v>0.008360325288587073</v>
       </c>
       <c r="T8">
-        <v>0.2523439672670061</v>
+        <v>0.008360325288587073</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>49.812376</v>
+        <v>113.7974623333333</v>
       </c>
       <c r="H9">
-        <v>149.437128</v>
+        <v>341.392387</v>
       </c>
       <c r="I9">
-        <v>0.518044379548987</v>
+        <v>0.7423155198198935</v>
       </c>
       <c r="J9">
-        <v>0.5180443795489871</v>
+        <v>0.7423155198198935</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>27.036212</v>
       </c>
       <c r="O9">
-        <v>0.489390778604016</v>
+        <v>0.9181055646724333</v>
       </c>
       <c r="P9">
-        <v>0.489390778604016</v>
+        <v>0.9181055646724334</v>
       </c>
       <c r="Q9">
-        <v>448.9126525865706</v>
+        <v>1025.550772235338</v>
       </c>
       <c r="R9">
-        <v>4040.213873279136</v>
+        <v>9229.956950118043</v>
       </c>
       <c r="S9">
-        <v>0.2535261422589131</v>
+        <v>0.6815240094893542</v>
       </c>
       <c r="T9">
-        <v>0.2535261422589132</v>
+        <v>0.6815240094893543</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>49.812376</v>
+        <v>113.7974623333333</v>
       </c>
       <c r="H10">
-        <v>149.437128</v>
+        <v>341.392387</v>
       </c>
       <c r="I10">
-        <v>0.518044379548987</v>
+        <v>0.7423155198198935</v>
       </c>
       <c r="J10">
-        <v>0.5180443795489871</v>
+        <v>0.7423155198198935</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4327576666666667</v>
+        <v>0.6933189999999999</v>
       </c>
       <c r="N10">
-        <v>1.298273</v>
+        <v>2.079957</v>
       </c>
       <c r="O10">
-        <v>0.02350043838650813</v>
+        <v>0.07063193971031816</v>
       </c>
       <c r="P10">
-        <v>0.02350043838650813</v>
+        <v>0.07063193971031817</v>
       </c>
       <c r="Q10">
-        <v>21.55668760888267</v>
+        <v>78.89794278748433</v>
       </c>
       <c r="R10">
-        <v>194.010188479944</v>
+        <v>710.0814850873589</v>
       </c>
       <c r="S10">
-        <v>0.0121742700230678</v>
+        <v>0.0524311850419522</v>
       </c>
       <c r="T10">
-        <v>0.0121742700230678</v>
+        <v>0.05243118504195221</v>
       </c>
     </row>
   </sheetData>
